--- a/data/long_dif/P24_6-Estudios-long_dif.xlsx
+++ b/data/long_dif/P24_6-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>21,84%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18,48%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30,45%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,53; 37,66</t>
+          <t>17,21; 37,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,32; 26,61</t>
+          <t>12,74; 28,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,66; 46,28</t>
+          <t>26,48; 47,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,18; 29,32</t>
+          <t>9,93; 24,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,77; 24,47</t>
+          <t>11,07; 25,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,61; 30,3</t>
+          <t>11,43; 24,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,25; 30,96</t>
+          <t>21,17; 32,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,83; 23,79</t>
+          <t>15,18; 28,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,75; 36,39</t>
+          <t>16,57; 28,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14,06; 24,24</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>25,86; 37,99</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14,65; 24,99</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,1%</t>
+          <t>42,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>32,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,51%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,13%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,66%</t>
+          <t>49,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,14%</t>
+          <t>49,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,19%</t>
+          <t>48,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>44,74%</t>
+          <t>51,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>46,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,22%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>43,41%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>45,56%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,53; 57,57</t>
+          <t>31,89; 60,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,78; 46,53</t>
+          <t>22,87; 42,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,5; 45,28</t>
+          <t>29,59; 44,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,89; 55,62</t>
+          <t>21,82; 48,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,46; 59,01</t>
+          <t>40,67; 59,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,61; 58,42</t>
+          <t>41,02; 58,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,15; 53,72</t>
+          <t>42,5; 54,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,9; 50,97</t>
+          <t>42,75; 60,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,53; 50,36</t>
+          <t>39,24; 54,92</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35,33; 48,92</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>37,97; 48,17</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>36,57; 52,71</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>43,13%</t>
+          <t>46,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>27,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>45,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>31,52%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>39,3%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>26,14%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35,37%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,49; 36,32</t>
+          <t>19,68; 39,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,75; 57,67</t>
+          <t>36,58; 62,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,04; 34,47</t>
+          <t>20,82; 34,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,38; 36,79</t>
+          <t>33,19; 65,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,47; 37,85</t>
+          <t>24,07; 41,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,7; 29,85</t>
+          <t>25,58; 42,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,08; 34,12</t>
+          <t>19,68; 30,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,89; 45,46</t>
+          <t>20,26; 35,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,68; 30,36</t>
+          <t>25,45; 38,47</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>32,84; 48,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22,57; 30,31</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>28,71; 46,4</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,48; 36,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,44; 27,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,73; 31,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,98; 34,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,21; 26,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,1; 32,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,84; 34,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,4; 25,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,77; 30,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>47,2%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46,66%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>48,24%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,82%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>46,93%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>46,88%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>44,6%</t>
+          <t>27,8%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23,71%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>26,82%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>26,3%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,5; 52,78</t>
+          <t>19,91; 33,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,03; 51,11</t>
+          <t>19,48; 31,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,12; 48,67</t>
+          <t>21,4; 31,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,65; 51,29</t>
+          <t>20,03; 30,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>43,51; 53,16</t>
+          <t>24,77; 35,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,34; 49,78</t>
+          <t>18,77; 27,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,1; 50,57</t>
+          <t>23,71; 31,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,1; 50,77</t>
+          <t>22,68; 32,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>41,14; 48,22</t>
+          <t>23,65; 32,02</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20,1; 27,64</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23,76; 29,95</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>22,79; 30,26</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>49,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>42,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>39,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>46,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>47,35%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>45,95%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44,37%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>40,44%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,85; 27,34</t>
+          <t>41,74; 57,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,1; 38,48</t>
+          <t>38,14; 51,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,82; 35,86</t>
+          <t>37,65; 47,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,03; 27,09</t>
+          <t>32,32; 45,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,63; 33,49</t>
+          <t>39,53; 51,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,81; 30,19</t>
+          <t>41,6; 52,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,11; 25,9</t>
+          <t>42,28; 51,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,35; 34,43</t>
+          <t>36,45; 47,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,18; 31,27</t>
+          <t>42,71; 52,27</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>42,11; 50,59</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>40,92; 47,91</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>36,4; 44,72</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>35,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>30,19%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>30,34%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28,81%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>33,26%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,24; 32,24</t>
+          <t>19,05; 30,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,23; 32,16</t>
+          <t>25,06; 36,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,51; 32,9</t>
+          <t>26,96; 36,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,31; 39,55</t>
+          <t>29,32; 43,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,1; 32,3</t>
+          <t>20,41; 30,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,72; 33,91</t>
+          <t>25,08; 35,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,78; 34,55</t>
+          <t>22,38; 29,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,8; 30,38</t>
+          <t>25,45; 35,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,69; 31,84</t>
+          <t>21,57; 28,96</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>26,5; 34,26</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>25,68; 32,03</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>29,15; 38,53</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>51,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>37,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>44,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>44,58; 57,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>32,71; 44,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,07; 41,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32,04; 42,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>37,13; 48,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,45; 44,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>39,81; 48,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>36,42; 44,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>34,72; 41,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>31,12%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>26,94%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>28,74%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>31,29%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,79; 27,66</t>
+          <t>22,9; 39,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>30,01; 42,21</t>
+          <t>21,27; 33,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>30,36; 41,57</t>
+          <t>23,09; 33,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23,39; 33,75</t>
+          <t>28,14; 42,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,6; 35,2</t>
+          <t>26,88; 38,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,35; 34,28</t>
+          <t>21,92; 32,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>22,12; 29,15</t>
+          <t>25,87; 34,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>29,19; 36,89</t>
+          <t>23,49; 33,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>29,99; 36,69</t>
+          <t>26,6; 36,47</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>22,82; 31,38</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>25,36; 32,23</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>27,43; 36,37</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>43,85%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>39,73%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>41,64%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>38,02%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>40,21%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>24,63; 32,39</t>
+          <t>36,19; 50,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>19,44; 25,93</t>
+          <t>32,75; 46,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>25,31; 32,43</t>
+          <t>30,59; 41,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>26,71; 32,88</t>
+          <t>31,39; 43,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>20,63; 26,37</t>
+          <t>30,72; 43,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>24,85; 30,5</t>
+          <t>38,16; 49,82</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>26,47; 31,75</t>
+          <t>35,07; 44,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>20,72; 25,2</t>
+          <t>37,0; 47,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>25,92; 30,15</t>
+          <t>35,17; 44,36</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>37,49; 45,94</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>34,77; 41,8</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>36,09; 44,43</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>39,91%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>46,21%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>42,62%</t>
+          <t>29,15%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>31,42%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>33,24%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>28,5%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>43,97; 52,16</t>
+          <t>20,31; 33,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>38,18; 45,82</t>
+          <t>27,88; 40,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>36,26; 43,2</t>
+          <t>31,3; 42,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>41,13; 47,29</t>
+          <t>21,73; 33,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>43,83; 50,59</t>
+          <t>25,37; 36,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>42,35; 48,33</t>
+          <t>24,1; 34,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>43,65; 48,91</t>
+          <t>26,11; 34,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>41,62; 47,02</t>
+          <t>24,79; 34,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>40,49; 44,85</t>
+          <t>25,01; 33,53</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>27,66; 36,2</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>29,66; 36,77</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>24,88; 32,27</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>20,95; 26,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>31,86; 39,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>28,63; 35,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>23,33; 29,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>26,65; 32,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>24,49; 29,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>22,86; 26,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>30,14; 35,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>27,2; 31,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>30,96%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>29,75%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>24,53%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>30,37%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>25,28; 37,85</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>11,7; 23,25</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>25,28; 34,82</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 31,67</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>26,73; 34,47</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>16,29; 25,25</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>48,79%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>45,98%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>46,81%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>46,84%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>47,83%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>46,39%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>42,99; 54,66</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>36,49; 54,04</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>42,19; 52,32</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>39,81; 54,63</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>43,92; 51,74</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>40,32; 52,05</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>20,25%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>36,91%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>23,44%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>28,63%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>21,79%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>33,0%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>16,43; 24,72</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>28,75; 47,56</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>19,51; 27,71</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>21,84; 35,65</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>19,04; 25,2</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>27,71; 39,72</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>28,82%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>23,12%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>28,33%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>26,65%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>28,87%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>23,37%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>28,16%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>26,27%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>28,84%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>23,25%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>28,24%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>26,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>25,26; 32,73</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>20,02; 26,6</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>25,21; 32,39</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>23,0; 31,32</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>26,18; 31,96</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>20,7; 26,0</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>25,51; 30,89</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>23,09; 29,22</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>26,84; 31,49</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>21,04; 25,51</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>26,23; 30,52</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>23,92; 29,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>47,26%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>41,92%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>39,43%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>38,48%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>44,57%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>46,54%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>44,73%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>44,31%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>45,89%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>44,28%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>42,13%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>41,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>43,47; 51,15</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>38,15; 46,21</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>36,1; 42,75</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>33,96; 43,05</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>41,58; 47,91</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>43,28; 49,6</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>41,58; 47,63</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>40,74; 47,86</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>43,42; 48,49</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>41,88; 46,98</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>39,76; 44,18</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>38,65; 44,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>23,92%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>34,96%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>32,25%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>34,87%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>26,56%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>30,08%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>27,11%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>29,42%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>25,27%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>32,47%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>29,63%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>32,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>21,24; 26,95</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>31,28; 39,22</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>29,05; 35,6</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>30,26; 41,03</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>23,73; 29,31</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>27,04; 33,2</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>24,46; 29,48</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>26,15; 32,8</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>23,03; 27,42</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>30,02; 34,97</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>27,52; 31,77</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>29,33; 35,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
